--- a/Phisics/Lab5.02/Лаба 5.02.xlsx
+++ b/Phisics/Lab5.02/Лаба 5.02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egorm\YandexDisk\ИТМО\Физика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6E162B-246A-4735-B1C7-C25FCE8D0C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C748860-6B85-47E6-AFDB-64494B32A9DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" r:id="rId1"/>
@@ -963,72 +963,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1068,6 +1005,69 @@
     <xf numFmtId="11" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1101,7 +1101,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0743719726948145E-2"/>
+          <c:y val="3.36520787566131E-2"/>
+          <c:w val="0.80425094764894411"/>
+          <c:h val="0.95359448407507053"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -1652,6 +1662,7 @@
         <c:axId val="109717760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1600000000000000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1713,7 +1724,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2076,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2104,85 +2115,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="95"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="64" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="L2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="85" t="s">
+      <c r="M2" s="64" t="s">
         <v>6</v>
       </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="86" t="s">
+      <c r="O2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="84" t="s">
+      <c r="P2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="84" t="s">
+      <c r="Q2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="84" t="s">
+      <c r="R2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="84" t="s">
+      <c r="S2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="85" t="s">
+      <c r="T2" s="64" t="s">
         <v>6</v>
       </c>
       <c r="U2" s="3"/>
@@ -2251,13 +2262,13 @@
       <c r="T3" s="45">
         <v>246</v>
       </c>
-      <c r="U3" s="61"/>
-      <c r="V3" s="60"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="46"/>
       <c r="W3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="X3" s="24">
-        <v>2.0859634472700002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -2317,8 +2328,8 @@
       <c r="T4" s="34">
         <v>243</v>
       </c>
-      <c r="U4" s="61"/>
-      <c r="V4" s="60"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="46"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
@@ -2377,8 +2388,8 @@
       <c r="T5" s="34">
         <v>241</v>
       </c>
-      <c r="U5" s="61"/>
-      <c r="V5" s="60"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="46"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
@@ -2437,8 +2448,8 @@
       <c r="T6" s="34">
         <v>238</v>
       </c>
-      <c r="U6" s="61"/>
-      <c r="V6" s="60"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="46"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
@@ -2497,8 +2508,8 @@
       <c r="T7" s="34">
         <v>236</v>
       </c>
-      <c r="U7" s="61"/>
-      <c r="V7" s="60"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="46"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
@@ -2557,8 +2568,8 @@
       <c r="T8" s="34">
         <v>234</v>
       </c>
-      <c r="U8" s="61"/>
-      <c r="V8" s="60"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="46"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
@@ -2617,8 +2628,8 @@
       <c r="T9" s="34">
         <v>231</v>
       </c>
-      <c r="U9" s="61"/>
-      <c r="V9" s="60"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="46"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
@@ -2677,8 +2688,8 @@
       <c r="T10" s="34">
         <v>229</v>
       </c>
-      <c r="U10" s="61"/>
-      <c r="V10" s="60"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="46"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
@@ -2737,8 +2748,8 @@
       <c r="T11" s="34">
         <v>226</v>
       </c>
-      <c r="U11" s="61"/>
-      <c r="V11" s="60"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="46"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
@@ -2797,8 +2808,8 @@
       <c r="T12" s="34">
         <v>224</v>
       </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="60"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="46"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
@@ -2857,8 +2868,8 @@
       <c r="T13" s="34">
         <v>222</v>
       </c>
-      <c r="U13" s="61"/>
-      <c r="V13" s="60"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="46"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
@@ -2917,8 +2928,8 @@
       <c r="T14" s="34">
         <v>219</v>
       </c>
-      <c r="U14" s="61"/>
-      <c r="V14" s="60"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="46"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
@@ -2977,8 +2988,8 @@
       <c r="T15" s="34">
         <v>217</v>
       </c>
-      <c r="U15" s="61"/>
-      <c r="V15" s="60"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="46"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
@@ -3037,8 +3048,8 @@
       <c r="T16" s="34">
         <v>214</v>
       </c>
-      <c r="U16" s="61"/>
-      <c r="V16" s="60"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="46"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
@@ -3097,8 +3108,8 @@
       <c r="T17" s="34">
         <v>212</v>
       </c>
-      <c r="U17" s="61"/>
-      <c r="V17" s="60"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="46"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
@@ -3157,8 +3168,8 @@
       <c r="T18" s="34">
         <v>210</v>
       </c>
-      <c r="U18" s="61"/>
-      <c r="V18" s="60"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="46"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
@@ -3217,8 +3228,8 @@
       <c r="T19" s="34">
         <v>207</v>
       </c>
-      <c r="U19" s="61"/>
-      <c r="V19" s="60"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="46"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
@@ -3277,8 +3288,8 @@
       <c r="T20" s="34">
         <v>205</v>
       </c>
-      <c r="U20" s="61"/>
-      <c r="V20" s="60"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="46"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
@@ -3337,186 +3348,186 @@
       <c r="T21" s="34">
         <v>202</v>
       </c>
-      <c r="U21" s="61"/>
-      <c r="V21" s="60"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="46"/>
     </row>
     <row r="22" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="75">
+      <c r="A22" s="54">
         <v>20</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="77">
+      <c r="C22" s="56">
         <v>1.9319999999999999</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="56">
         <v>-0.01</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="57">
         <v>1500000000000000</v>
       </c>
-      <c r="F22" s="79">
+      <c r="F22" s="58">
         <v>200</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="80">
+      <c r="H22" s="59">
         <v>20</v>
       </c>
-      <c r="I22" s="76" t="s">
+      <c r="I22" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="76">
+      <c r="J22" s="55">
         <v>2.5390000000000001</v>
       </c>
-      <c r="K22" s="76">
+      <c r="K22" s="55">
         <v>-0.01</v>
       </c>
-      <c r="L22" s="81">
+      <c r="L22" s="60">
         <v>1500000000000000</v>
       </c>
-      <c r="M22" s="82">
+      <c r="M22" s="61">
         <v>200</v>
       </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="83">
+      <c r="O22" s="62">
         <v>20</v>
       </c>
-      <c r="P22" s="77" t="s">
+      <c r="P22" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="Q22" s="77">
+      <c r="Q22" s="56">
         <v>1.218</v>
       </c>
-      <c r="R22" s="77">
+      <c r="R22" s="56">
         <v>0.01</v>
       </c>
-      <c r="S22" s="78">
+      <c r="S22" s="57">
         <v>1500000000000000</v>
       </c>
-      <c r="T22" s="79">
+      <c r="T22" s="58">
         <v>200</v>
       </c>
-      <c r="U22" s="61"/>
-      <c r="V22" s="60"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="46"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="60"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="46"/>
     </row>
     <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
     </row>
     <row r="25" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="67" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="7">
         <f>AVERAGE(C3:C22)</f>
         <v>0.89834999999999976</v>
       </c>
-      <c r="D25" s="88" t="s">
+      <c r="D25" s="67" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="8">
         <f>AVERAGE(E3:E22)</f>
         <v>1252500000000000</v>
       </c>
-      <c r="F25" s="89" t="s">
+      <c r="F25" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="89" t="s">
+      <c r="G25" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="89" t="s">
+      <c r="H25" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="88" t="s">
+      <c r="I25" s="67" t="s">
         <v>8</v>
       </c>
       <c r="J25" s="7">
         <f>AVERAGE(J3:J23)</f>
         <v>1.1257500000000003</v>
       </c>
-      <c r="K25" s="88" t="s">
+      <c r="K25" s="67" t="s">
         <v>9</v>
       </c>
       <c r="L25" s="8">
         <f>AVERAGE(L3:L23)</f>
         <v>1157745000000000</v>
       </c>
-      <c r="M25" s="89" t="s">
+      <c r="M25" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="N25" s="89" t="s">
+      <c r="N25" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="O25" s="90" t="s">
+      <c r="O25" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="P25" s="88" t="s">
+      <c r="P25" s="67" t="s">
         <v>8</v>
       </c>
       <c r="Q25" s="7">
         <f>AVERAGE(Q3:Q23)</f>
         <v>0.60709999999999997</v>
       </c>
-      <c r="R25" s="88" t="s">
+      <c r="R25" s="67" t="s">
         <v>9</v>
       </c>
       <c r="S25" s="9">
         <f>AVERAGE(S3:S23)</f>
         <v>1351500000000000</v>
       </c>
-      <c r="T25" s="89" t="s">
+      <c r="T25" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="U25" s="89" t="s">
+      <c r="U25" s="68" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5009,7 +5020,7 @@
         <f t="shared" si="3"/>
         <v>6.1256250000000001E+28</v>
       </c>
-      <c r="H45" s="73">
+      <c r="H45" s="52">
         <v>20</v>
       </c>
       <c r="I45" s="13" t="s">
@@ -5034,7 +5045,7 @@
         <f t="shared" si="7"/>
         <v>1.17138485025E+29</v>
       </c>
-      <c r="O45" s="74">
+      <c r="O45" s="53">
         <v>20</v>
       </c>
       <c r="P45" s="13" t="s">
@@ -5063,99 +5074,99 @@
     <row r="46" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="60"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="60"/>
+      <c r="J46" s="46"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="61"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="60"/>
+      <c r="Q46" s="46"/>
       <c r="R46" s="3"/>
-      <c r="S46" s="61"/>
-      <c r="T46" s="61"/>
-      <c r="U46" s="61"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
     </row>
     <row r="47" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="70">
+      <c r="C47" s="49">
         <f>SUM(F26:F46)/SUM(G26:G46)</f>
         <v>4.1432008724694973E-15</v>
       </c>
-      <c r="D47" s="97" t="s">
+      <c r="D47" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="71">
+      <c r="E47" s="50">
         <f>C25-C47*E25</f>
         <v>-4.2910090927680455</v>
       </c>
-      <c r="F47" s="98" t="s">
+      <c r="F47" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="91" t="s">
+      <c r="G47" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="I47" s="85" t="s">
+      <c r="I47" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="70">
+      <c r="J47" s="49">
         <f>SUM(M26:M46)/SUM(N26:N46)</f>
         <v>4.1304245045402903E-15</v>
       </c>
-      <c r="K47" s="97" t="s">
+      <c r="K47" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="71">
+      <c r="L47" s="50">
         <f>J25-J47*L25</f>
         <v>-3.6562283180089983</v>
       </c>
-      <c r="M47" s="98" t="s">
+      <c r="M47" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="N47" s="91" t="s">
+      <c r="N47" s="70" t="s">
         <v>31</v>
       </c>
       <c r="O47" s="3"/>
-      <c r="P47" s="85" t="s">
+      <c r="P47" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q47" s="70">
+      <c r="Q47" s="49">
         <f>SUM(T26:T46)/SUM(U26:U46)</f>
         <v>4.0554839589512799E-15</v>
       </c>
-      <c r="R47" s="97" t="s">
+      <c r="R47" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="S47" s="71">
+      <c r="S47" s="50">
         <f>Q25-Q47*S25</f>
         <v>-4.8738865705226546</v>
       </c>
-      <c r="T47" s="98" t="s">
+      <c r="T47" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="U47" s="91" t="s">
+      <c r="U47" s="70" t="s">
         <v>31</v>
       </c>
       <c r="V47" s="3"/>
     </row>
     <row r="48" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="68" t="s">
+      <c r="C48" s="98"/>
+      <c r="D48" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="69"/>
+      <c r="E48" s="100"/>
       <c r="F48" s="25">
         <f>C3-(E$47+C$47*E3)</f>
         <v>8.6481766750731714E-3</v>
@@ -5164,14 +5175,14 @@
         <f>F48^2</f>
         <v>7.4790959803279654E-5</v>
       </c>
-      <c r="I48" s="66" t="s">
+      <c r="I48" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="67"/>
-      <c r="K48" s="68" t="s">
+      <c r="J48" s="98"/>
+      <c r="K48" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="L48" s="69"/>
+      <c r="L48" s="100"/>
       <c r="M48" s="25">
         <f>J3-(L$47+J$47*L3)</f>
         <v>-1.069929482353435E-2</v>
@@ -5181,14 +5192,14 @@
         <v>1.1447490972090893E-4</v>
       </c>
       <c r="O48" s="26"/>
-      <c r="P48" s="66" t="s">
+      <c r="P48" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="68" t="s">
+      <c r="Q48" s="98"/>
+      <c r="R48" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="S48" s="69"/>
+      <c r="S48" s="100"/>
       <c r="T48" s="25">
         <f>Q3-(S$47+Q$47*S3)</f>
         <v>-5.8038593979064523E-3</v>
@@ -5200,14 +5211,14 @@
       <c r="V48" s="27"/>
     </row>
     <row r="49" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="91" t="s">
+      <c r="B49" s="70" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="14">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D49" s="91" t="s">
+      <c r="D49" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E49" s="19">
@@ -5219,17 +5230,17 @@
         <v>-1.2158407743161626E-3</v>
       </c>
       <c r="G49" s="21">
-        <f t="shared" ref="G49:G68" si="13">F49^2</f>
+        <f t="shared" ref="G49:G67" si="13">F49^2</f>
         <v>1.4782687884897258E-6</v>
       </c>
-      <c r="I49" s="91" t="s">
+      <c r="I49" s="70" t="s">
         <v>19</v>
       </c>
       <c r="J49" s="14">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="K49" s="91" t="s">
+      <c r="K49" s="70" t="s">
         <v>19</v>
       </c>
       <c r="L49" s="19">
@@ -5241,17 +5252,17 @@
         <v>-1.206865756297773E-2</v>
       </c>
       <c r="N49" s="21">
-        <f t="shared" ref="N49:N68" si="15">M49^2</f>
+        <f t="shared" ref="N49:N67" si="15">M49^2</f>
         <v>1.4565249537241956E-4</v>
       </c>
-      <c r="P49" s="91" t="s">
+      <c r="P49" s="70" t="s">
         <v>19</v>
       </c>
       <c r="Q49" s="14">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="R49" s="91" t="s">
+      <c r="R49" s="70" t="s">
         <v>19</v>
       </c>
       <c r="S49" s="19">
@@ -5263,19 +5274,19 @@
         <v>1.5641301012580766E-2</v>
       </c>
       <c r="U49" s="21">
-        <f t="shared" ref="U49:U68" si="17">T49^2</f>
+        <f t="shared" ref="U49:U67" si="17">T49^2</f>
         <v>2.4465029736616008E-4</v>
       </c>
     </row>
     <row r="50" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="92" t="s">
+      <c r="B50" s="71" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="17">
         <f>E47</f>
         <v>-4.2910090927680455</v>
       </c>
-      <c r="D50" s="92" t="s">
+      <c r="D50" s="71" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="20">
@@ -5290,14 +5301,14 @@
         <f t="shared" si="13"/>
         <v>2.5856184049449711E-4</v>
       </c>
-      <c r="I50" s="92" t="s">
+      <c r="I50" s="71" t="s">
         <v>18</v>
       </c>
       <c r="J50" s="17">
         <f>L47</f>
         <v>-3.6562283180089983</v>
       </c>
-      <c r="K50" s="92" t="s">
+      <c r="K50" s="71" t="s">
         <v>18</v>
       </c>
       <c r="L50" s="20">
@@ -5312,14 +5323,14 @@
         <f t="shared" si="15"/>
         <v>9.4420621454900094E-6</v>
       </c>
-      <c r="P50" s="92" t="s">
+      <c r="P50" s="71" t="s">
         <v>18</v>
       </c>
       <c r="Q50" s="17">
         <f>S47</f>
         <v>-4.8738865705226546</v>
       </c>
-      <c r="R50" s="92" t="s">
+      <c r="R50" s="71" t="s">
         <v>18</v>
       </c>
       <c r="S50" s="20">
@@ -5336,14 +5347,14 @@
       </c>
     </row>
     <row r="51" spans="2:21" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="48" t="s">
+      <c r="C51" s="84"/>
+      <c r="D51" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="49"/>
+      <c r="E51" s="83"/>
       <c r="F51" s="21">
         <f t="shared" si="12"/>
         <v>-1.8943875673096577E-2</v>
@@ -5352,14 +5363,14 @@
         <f t="shared" si="13"/>
         <v>3.588704255177403E-4</v>
       </c>
-      <c r="I51" s="48" t="s">
+      <c r="I51" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="50"/>
-      <c r="K51" s="48" t="s">
+      <c r="J51" s="84"/>
+      <c r="K51" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="L51" s="49"/>
+      <c r="L51" s="83"/>
       <c r="M51" s="21">
         <f t="shared" si="14"/>
         <v>3.0051307985177633E-2</v>
@@ -5368,14 +5379,14 @@
         <f t="shared" si="15"/>
         <v>9.0308111162000103E-4</v>
       </c>
-      <c r="P51" s="48" t="s">
+      <c r="P51" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="Q51" s="50"/>
-      <c r="R51" s="48" t="s">
+      <c r="Q51" s="84"/>
+      <c r="R51" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="S51" s="49"/>
+      <c r="S51" s="83"/>
       <c r="T51" s="21">
         <f t="shared" si="16"/>
         <v>2.9767822440415204E-3</v>
@@ -5386,16 +5397,16 @@
       </c>
     </row>
     <row r="52" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="46">
+      <c r="B52" s="80">
         <f>-E47*$X$2</f>
         <v>4.2910090927680455</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="46">
+      <c r="C52" s="85"/>
+      <c r="D52" s="80">
         <f>C47*$X$2</f>
         <v>4.1432008724694973E-15</v>
       </c>
-      <c r="E52" s="47"/>
+      <c r="E52" s="81"/>
       <c r="F52" s="21">
         <f t="shared" si="12"/>
         <v>2.1624115602208338E-2</v>
@@ -5404,16 +5415,16 @@
         <f t="shared" si="13"/>
         <v>4.6760237557767005E-4</v>
       </c>
-      <c r="I52" s="46">
+      <c r="I52" s="80">
         <f>-L47*$X$2</f>
         <v>3.6562283180089983</v>
       </c>
-      <c r="J52" s="51"/>
-      <c r="K52" s="46">
+      <c r="J52" s="85"/>
+      <c r="K52" s="80">
         <f>J47*$X$2</f>
         <v>4.1304245045402903E-15</v>
       </c>
-      <c r="L52" s="47"/>
+      <c r="L52" s="81"/>
       <c r="M52" s="21">
         <f t="shared" si="14"/>
         <v>-4.3049839363427655E-3</v>
@@ -5422,16 +5433,16 @@
         <f t="shared" si="15"/>
         <v>1.8532886692169251E-5</v>
       </c>
-      <c r="P52" s="46">
+      <c r="P52" s="80">
         <f>-S47*$X$2</f>
         <v>4.8738865705226546</v>
       </c>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="46">
+      <c r="Q52" s="85"/>
+      <c r="R52" s="80">
         <f>Q47*$X$2</f>
         <v>4.0554839589512799E-15</v>
       </c>
-      <c r="S52" s="47"/>
+      <c r="S52" s="81"/>
       <c r="T52" s="21">
         <f t="shared" si="16"/>
         <v>-7.5780573454712341E-3</v>
@@ -5471,17 +5482,17 @@
       </c>
     </row>
     <row r="54" spans="2:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="93" t="s">
+      <c r="B54" s="72" t="s">
         <v>29</v>
       </c>
       <c r="C54" s="12">
         <f>D57*$X$3</f>
-        <v>6.1514149624178608E-17</v>
-      </c>
-      <c r="D54" s="95" t="s">
+        <v>5.8979125166057066E-17</v>
+      </c>
+      <c r="D54" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="96" t="s">
+      <c r="E54" s="75" t="s">
         <v>27</v>
       </c>
       <c r="F54" s="21">
@@ -5492,17 +5503,17 @@
         <f t="shared" si="13"/>
         <v>3.4763767661345934E-5</v>
       </c>
-      <c r="I54" s="93" t="s">
+      <c r="I54" s="72" t="s">
         <v>29</v>
       </c>
       <c r="J54" s="12">
         <f>K57*$X$3</f>
-        <v>2.4719665418633333E-17</v>
-      </c>
-      <c r="K54" s="95" t="s">
+        <v>2.3700957417048834E-17</v>
+      </c>
+      <c r="K54" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="L54" s="96" t="s">
+      <c r="L54" s="75" t="s">
         <v>27</v>
       </c>
       <c r="M54" s="21">
@@ -5513,17 +5524,17 @@
         <f t="shared" si="15"/>
         <v>1.1560973604350745E-5</v>
       </c>
-      <c r="P54" s="93" t="s">
+      <c r="P54" s="72" t="s">
         <v>29</v>
       </c>
       <c r="Q54" s="12">
         <f>R57*$X$3</f>
-        <v>6.3656364534920197E-17</v>
-      </c>
-      <c r="R54" s="95" t="s">
+        <v>6.1033058482621371E-17</v>
+      </c>
+      <c r="R54" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="S54" s="96" t="s">
+      <c r="S54" s="75" t="s">
         <v>27</v>
       </c>
       <c r="T54" s="21">
@@ -5536,12 +5547,12 @@
       </c>
     </row>
     <row r="55" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="91" t="s">
+      <c r="B55" s="70" t="s">
         <v>32</v>
       </c>
       <c r="C55" s="14">
         <f>C54</f>
-        <v>6.1514149624178608E-17</v>
+        <v>5.8979125166057066E-17</v>
       </c>
       <c r="D55" s="22">
         <f>SUM(G26:G46)</f>
@@ -5558,12 +5569,12 @@
         <f t="shared" si="13"/>
         <v>4.579576661470712E-4</v>
       </c>
-      <c r="I55" s="91" t="s">
+      <c r="I55" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J55" s="14">
         <f>J54</f>
-        <v>2.4719665418633333E-17</v>
+        <v>2.3700957417048834E-17</v>
       </c>
       <c r="K55" s="22">
         <f>SUM(N26:N46)</f>
@@ -5580,12 +5591,12 @@
         <f t="shared" si="15"/>
         <v>4.6604923243291996E-6</v>
       </c>
-      <c r="P55" s="91" t="s">
+      <c r="P55" s="70" t="s">
         <v>32</v>
       </c>
       <c r="Q55" s="14">
         <f>Q54</f>
-        <v>6.3656364534920197E-17</v>
+        <v>6.1033058482621371E-17</v>
       </c>
       <c r="R55" s="22">
         <f>SUM(U26:U46)</f>
@@ -5604,14 +5615,14 @@
       </c>
     </row>
     <row r="56" spans="2:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="94" t="s">
+      <c r="B56" s="73" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="30">
         <f>C55/C47</f>
-        <v>1.4847011167844719E-2</v>
-      </c>
-      <c r="D56" s="96" t="s">
+        <v>1.4235159477291618E-2</v>
+      </c>
+      <c r="D56" s="75" t="s">
         <v>26</v>
       </c>
       <c r="F56" s="21">
@@ -5622,14 +5633,14 @@
         <f t="shared" si="13"/>
         <v>1.613471903764331E-3</v>
       </c>
-      <c r="I56" s="94" t="s">
+      <c r="I56" s="73" t="s">
         <v>30</v>
       </c>
       <c r="J56" s="28">
         <f>J55/J47</f>
-        <v>5.9847759937170413E-3</v>
-      </c>
-      <c r="K56" s="96" t="s">
+        <v>5.7381408111916851E-3</v>
+      </c>
+      <c r="K56" s="75" t="s">
         <v>26</v>
       </c>
       <c r="M56" s="21">
@@ -5640,14 +5651,14 @@
         <f t="shared" si="15"/>
         <v>1.1434192222644874E-4</v>
       </c>
-      <c r="P56" s="94" t="s">
+      <c r="P56" s="73" t="s">
         <v>30</v>
       </c>
       <c r="Q56" s="28">
         <f>Q55/Q47</f>
-        <v>1.5696366988314087E-2</v>
-      </c>
-      <c r="R56" s="96" t="s">
+        <v>1.5049512980543042E-2</v>
+      </c>
+      <c r="R56" s="75" t="s">
         <v>26</v>
       </c>
       <c r="T56" s="21">
@@ -5859,7 +5870,7 @@
     <row r="64" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D64" s="6"/>
       <c r="F64" s="21">
-        <f t="shared" ref="F64:F68" si="18">C19-(E$47+C$47*E19)</f>
+        <f t="shared" ref="F64:F67" si="18">C19-(E$47+C$47*E19)</f>
         <v>7.0958625860539914E-3</v>
       </c>
       <c r="G64" s="21">
@@ -5867,7 +5878,7 @@
         <v>5.0351265840160838E-5</v>
       </c>
       <c r="M64" s="21">
-        <f t="shared" ref="M64:M68" si="19">J19-(L$47+J$47*L19)</f>
+        <f t="shared" ref="M64:M67" si="19">J19-(L$47+J$47*L19)</f>
         <v>-2.6990341693093889E-3</v>
       </c>
       <c r="N64" s="21">
@@ -5875,7 +5886,7 @@
         <v>7.2847854470996233E-6</v>
       </c>
       <c r="T64" s="21">
-        <f t="shared" ref="T64:T68" si="20">Q19-(S$47+Q$47*S19)</f>
+        <f t="shared" ref="T64:T67" si="20">Q19-(S$47+Q$47*S19)</f>
         <v>3.4348300432986978E-3</v>
       </c>
       <c r="U64" s="21">
@@ -5910,11 +5921,11 @@
       </c>
     </row>
     <row r="66" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F66" s="62">
+      <c r="F66" s="48">
         <f t="shared" si="18"/>
         <v>1.150381023788416E-2</v>
       </c>
-      <c r="G66" s="62">
+      <c r="G66" s="48">
         <f t="shared" si="13"/>
         <v>1.3233764998924841E-4</v>
       </c>
@@ -5936,25 +5947,25 @@
       </c>
     </row>
     <row r="67" spans="6:21" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F67" s="100">
+      <c r="F67" s="79">
         <f t="shared" si="18"/>
         <v>8.207784063799739E-3</v>
       </c>
-      <c r="G67" s="100">
+      <c r="G67" s="79">
         <f t="shared" si="13"/>
         <v>6.7367719237964956E-5</v>
       </c>
-      <c r="I67" s="52" t="s">
+      <c r="I67" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="53"/>
+      <c r="J67" s="87"/>
+      <c r="K67" s="87"/>
+      <c r="L67" s="87"/>
       <c r="M67" s="16">
         <f t="shared" si="19"/>
         <v>-4.0843880143670575E-4</v>
       </c>
-      <c r="N67" s="72">
+      <c r="N67" s="51">
         <f t="shared" si="15"/>
         <v>1.6682225451905274E-7</v>
       </c>
@@ -5962,57 +5973,57 @@
         <f t="shared" si="20"/>
         <v>8.6606320957347549E-3</v>
       </c>
-      <c r="U67" s="72">
+      <c r="U67" s="51">
         <f t="shared" si="17"/>
         <v>7.5006548297670971E-5</v>
       </c>
     </row>
     <row r="68" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="I68" s="63">
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="I68" s="88">
         <f>(D52+K52+R52)/3</f>
         <v>4.1097031119870222E-15</v>
       </c>
-      <c r="J68" s="64"/>
-      <c r="K68" s="64"/>
-      <c r="L68" s="65"/>
-      <c r="M68" s="61"/>
-      <c r="N68" s="61"/>
-      <c r="O68" s="60"/>
-      <c r="P68" s="60"/>
-      <c r="Q68" s="60"/>
-      <c r="R68" s="60"/>
-      <c r="S68" s="60"/>
-      <c r="T68" s="61"/>
-      <c r="U68" s="61"/>
+      <c r="J68" s="89"/>
+      <c r="K68" s="89"/>
+      <c r="L68" s="90"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="46"/>
+      <c r="R68" s="46"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="47"/>
+      <c r="U68" s="47"/>
     </row>
     <row r="69" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="6:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I70" s="99" t="s">
+      <c r="I70" s="78" t="s">
         <v>34</v>
       </c>
       <c r="J70" s="12">
         <f>SQRT(C55^2+J55^2+Q55^2)/3</f>
-        <v>3.0636189943336361E-17</v>
-      </c>
-      <c r="K70" s="54" t="s">
+        <v>2.9373659431502887E-17</v>
+      </c>
+      <c r="K70" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="L70" s="55"/>
+      <c r="L70" s="92"/>
     </row>
     <row r="71" spans="6:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I71" s="92" t="s">
+      <c r="I71" s="71" t="s">
         <v>35</v>
       </c>
       <c r="J71" s="28">
         <f>J70/I68</f>
-        <v>7.4545993003674437E-3</v>
-      </c>
-      <c r="K71" s="56"/>
-      <c r="L71" s="57"/>
+        <v>7.1473920697159221E-3</v>
+      </c>
+      <c r="K71" s="93"/>
+      <c r="L71" s="94"/>
     </row>
     <row r="72" spans="6:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
